--- a/biology/Botanique/Pachycereus/Pachycereus.xlsx
+++ b/biology/Botanique/Pachycereus/Pachycereus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachycereus est un genre de la famille, des Cactaceae. Il comprend 12 espèces de grands cactus originaires du Mexique et du sud de l'Arizona.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de grands buissons ou de petits arbres de 5 à 15 m et avec un tronc pouvant atteindre 1 m de diamètre.
-Pachycereus pringlei est l'espèce qui détient le record du cactus le plus haut avec 19,2 m[1].
+Pachycereus pringlei est l'espèce qui détient le record du cactus le plus haut avec 19,2 m.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pachycereus gatesii (M.E.Jones) D.R.Hunt
 Pachycereus gaumeri Britton &amp; Rose
@@ -583,7 +599,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pachycereus tire son nom du grec « pakhus » signifiant « épais » et du latin « cereus » signifiant « cierge ». « Pachycereus » désigne donc un « cierge épais ».
 </t>
@@ -614,7 +632,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Backebergia Bravo
 Lemaireocereus Britton &amp; Rose
